--- a/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5,061.49</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5,024.76</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4,822.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,133.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5,826.85</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5,133.37</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4,822.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5,024.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5,061.49</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5826.85</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>4822.66</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>5173.826</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>113.40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>106.48</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>119.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>136.24</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>119.04</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>109.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>106.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>113.40</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>136.24</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>106.48</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>116.958</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5,174.89</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5,131.24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4,932.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5,252.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5,963.09</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5,252.41</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4,932.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5,131.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5,174.89</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>5963.09</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>4932.29</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>5290.784</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,254.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3,335.40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,205.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3,363.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3,837.90</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3,363.11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,205.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3,335.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,254.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3837.9</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>3205.64</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>3399.21</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>232.29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>234.54</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>289.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>244.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>290.33</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>244.82</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>289.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>234.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>232.29</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>290.33</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>232.29</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>258.236</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-17.72</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-3.67</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-59.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-18.18</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>72.29</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-59.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-3.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-17.72</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>72.29000000000001</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-59.67</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-5.389999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>183.38</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>184.79</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>174.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>214.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>210.24</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>214.57</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>174.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>184.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>183.38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>214.57</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>174.76</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>193.548</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>68.62</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>69.20</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>45.95</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>44.29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>44.29</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>54.508</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-13.92</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-19.79</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-13.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-12.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>-15.97</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-12.62</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-13.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-19.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-13.92</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-12.62</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-19.79</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-15.068</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>404.90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>264.79</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>404.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>445.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>531.99</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>445.11</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>404.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>264.79</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>404.90</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>531.99</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>264.79</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>410.16</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,087.67</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,089.23</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>886.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>855.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,058.16</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>855.93</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>886.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,089.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,087.67</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1089.23</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>855.9299999999999</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>995.5799999999999</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>124.16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>221.84</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>184.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>219.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>113.61</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>219.27</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>184.81</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>221.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>124.16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>113.61</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>172.738</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,211.83</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,311.07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,071.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,075.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,171.77</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,075.20</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,071.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,311.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,211.83</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1311.07</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1071.72</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1168.318</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.112</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,211.79</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,310.88</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,071.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,075.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,171.72</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,075.09</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,071.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,310.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,211.79</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1310.88</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1071.55</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1168.206</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>-340.29</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>-340.29</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-340.29</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-340.29</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,211.79</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,310.88</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,071.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,075.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>831.43</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,075.09</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,071.55</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,310.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,211.79</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1310.88</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>831.4299999999999</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1100.148</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>374.63</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>406.33</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>308.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>335.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>240.53</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>335.11</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>308.99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>406.33</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>374.63</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>406.33</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>240.53</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>333.118</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>837.16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>904.55</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>762.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>739.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>590.90</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>739.98</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>762.56</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>904.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>837.16</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>904.55</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>767.03</v>
       </c>
     </row>
     <row r="23">
@@ -1314,15 +1120,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>1.37</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1332,37 +1129,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>837.16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>904.55</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>763.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>739.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>590.90</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>739.98</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>763.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>904.55</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>837.16</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>904.55</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>767.304</v>
       </c>
     </row>
     <row r="25">
@@ -1395,15 +1183,6 @@
         <is>
           <t>289.37</t>
         </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>289.37</v>
       </c>
     </row>
     <row r="26"/>
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>31.30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>26.52</v>
       </c>
     </row>
     <row r="29">
@@ -1463,37 +1233,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>31.30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>26.52</v>
       </c>
     </row>
     <row r="30"/>
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>31.30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>26.52</v>
       </c>
     </row>
     <row r="33">
@@ -1553,37 +1305,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>31.30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>26.52</v>
       </c>
     </row>
     <row r="34"/>
@@ -1625,15 +1368,6 @@
           <t>14.46</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>14.46</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1665,15 +1399,6 @@
         <is>
           <t>49.98</t>
         </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>49.98</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>49.98</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>49.98</v>
       </c>
     </row>
     <row r="38"/>
@@ -1723,15 +1448,6 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1764,15 +1480,6 @@
           <t>0.06</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1804,15 +1511,6 @@
         <is>
           <t>0.03</t>
         </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.03</v>
       </c>
     </row>
     <row r="45"/>
@@ -1831,37 +1529,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>14.47</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>14.47</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>14.47</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>14.47</t>
         </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>14.46</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>14.468</v>
       </c>
     </row>
     <row r="48">
@@ -1895,15 +1584,6 @@
           <t>99.94</t>
         </is>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>99.94</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>99.94</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>99.94</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1935,15 +1615,6 @@
         <is>
           <t>49.99</t>
         </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>49.99</v>
       </c>
     </row>
   </sheetData>
